--- a/src/main/webapp/template/excel/ProductProfitStatistics.xlsx
+++ b/src/main/webapp/template/excel/ProductProfitStatistics.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
   </si>
@@ -40,31 +40,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>成人数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>团款收入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他收入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商应付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>产品名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>成人数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿童数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>团款收入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他收入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商应付</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛利</t>
+    <t>产品品牌</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -444,28 +448,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEY6"/>
+  <dimension ref="A1:XEZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16379" width="9.140625" style="1"/>
-    <col min="16380" max="16380" width="9.140625"/>
+    <col min="3" max="4" width="23.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16380" width="9.140625" style="1"/>
+    <col min="16381" max="16381" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -478,8 +482,9 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -490,28 +495,31 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -521,8 +529,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -532,8 +541,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -543,8 +553,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -554,10 +565,11 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
